--- a/Documentations/Datasets/IEEE 33.xlsx
+++ b/Documentations/Datasets/IEEE 33.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Ladder-Iterative-Loadflow\Documentations\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D690D08-D38A-4D50-A3E4-56B95EEA07A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30F9242-7F4C-4994-9A5A-801DCB5D4DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,9 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U83"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -650,7 +648,7 @@
         <v>0.997</v>
       </c>
       <c r="G4" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="H4" s="4">
         <v>0.1</v>
@@ -705,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.98280000000000001</v>
+        <v>0.9829</v>
       </c>
       <c r="G5" s="3">
-        <v>9.9599999999999994E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H5" s="4">
         <v>0.09</v>
@@ -763,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>0.97519999999999996</v>
+        <v>0.97550000000000003</v>
       </c>
       <c r="G6" s="3">
-        <v>0.16769999999999999</v>
+        <v>0.16170000000000001</v>
       </c>
       <c r="H6" s="4">
         <v>0.12</v>
@@ -821,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.9677</v>
+        <v>0.96809999999999996</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2369</v>
+        <v>0.2283</v>
       </c>
       <c r="H7" s="4">
         <v>0.06</v>
@@ -879,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0.94910000000000005</v>
+        <v>0.94969999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>0.14549999999999999</v>
+        <v>0.13389999999999999</v>
       </c>
       <c r="H8" s="4">
         <v>0.06</v>
@@ -937,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.9456</v>
+        <v>0.94620000000000004</v>
       </c>
       <c r="G9" s="3">
-        <v>-8.5099999999999995E-2</v>
+        <v>-9.64E-2</v>
       </c>
       <c r="H9" s="4">
         <v>0.2</v>
@@ -995,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.94069999999999998</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="G10" s="3">
-        <v>-4.9000000000000002E-2</v>
+        <v>-6.0299999999999999E-2</v>
       </c>
       <c r="H10" s="4">
         <v>0.2</v>
@@ -1053,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.9345</v>
+        <v>0.93510000000000004</v>
       </c>
       <c r="G11" s="3">
-        <v>-0.1222</v>
+        <v>-0.13339999999999999</v>
       </c>
       <c r="H11" s="4">
         <v>0.06</v>
@@ -1111,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.92859999999999998</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.18479999999999999</v>
+        <v>-0.19589999999999999</v>
       </c>
       <c r="H12" s="4">
         <v>0.06</v>
@@ -1169,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>0.92779999999999996</v>
+        <v>0.9284</v>
       </c>
       <c r="G13" s="3">
-        <v>-0.17749999999999999</v>
+        <v>-0.18870000000000001</v>
       </c>
       <c r="H13" s="4">
         <v>4.4999999999999998E-2</v>
@@ -1227,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0.92630000000000001</v>
+        <v>0.92689999999999995</v>
       </c>
       <c r="G14" s="3">
-        <v>-0.1673</v>
+        <v>-0.17849999999999999</v>
       </c>
       <c r="H14" s="4">
         <v>0.06</v>
@@ -1284,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0.92020000000000002</v>
+        <v>0.92079999999999995</v>
       </c>
       <c r="G15" s="3">
-        <v>-0.25879999999999997</v>
+        <v>-0.26979999999999998</v>
       </c>
       <c r="H15" s="4">
         <v>0.06</v>
@@ -1342,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.91790000000000005</v>
+        <v>0.91849999999999998</v>
       </c>
       <c r="G16" s="3">
-        <v>-0.33760000000000001</v>
+        <v>-0.34849999999999998</v>
       </c>
       <c r="H16" s="4">
         <v>0.12</v>
@@ -1400,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>0.91749999999999998</v>
+        <v>0.91710000000000003</v>
       </c>
       <c r="G17" s="3">
-        <v>-0.34920000000000001</v>
+        <v>-0.38619999999999999</v>
       </c>
       <c r="H17" s="4">
         <v>0.06</v>
@@ -1458,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0.91459999999999997</v>
+        <v>0.91569999999999996</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.41920000000000002</v>
+        <v>-0.40939999999999999</v>
       </c>
       <c r="H18" s="4">
         <v>0.06</v>
@@ -1516,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>0.91400000000000003</v>
+        <v>0.91369999999999996</v>
       </c>
       <c r="G19" s="3">
-        <v>-0.43940000000000001</v>
+        <v>-0.48670000000000002</v>
       </c>
       <c r="H19" s="4">
         <v>0.06</v>
@@ -1574,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0.9133</v>
+        <v>0.91310000000000002</v>
       </c>
       <c r="G20" s="3">
-        <v>-0.46339999999999998</v>
+        <v>-0.49630000000000002</v>
       </c>
       <c r="H20" s="4">
         <v>0.09</v>
@@ -1632,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0.99509999999999998</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="G21" s="3">
-        <v>-1.9099999999999999E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="H21" s="4">
         <v>0.09</v>
@@ -1690,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0.99409999999999998</v>
+        <v>0.9929</v>
       </c>
       <c r="G22" s="3">
-        <v>-2.9700000000000001E-2</v>
+        <v>-6.3299999999999995E-2</v>
       </c>
       <c r="H22" s="4">
         <v>0.09</v>
@@ -1748,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0.99280000000000002</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="G23" s="3">
-        <v>-4.99E-2</v>
+        <v>-8.2699999999999996E-2</v>
       </c>
       <c r="H23" s="4">
         <v>0.09</v>
@@ -1806,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0.99209999999999998</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="G24" s="3">
-        <v>-5.9799999999999999E-2</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="H24" s="4">
         <v>0.09</v>
@@ -1864,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>0.9768</v>
+        <v>0.97940000000000005</v>
       </c>
       <c r="G25" s="3">
-        <v>3.5799999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H25" s="4">
         <v>0.09</v>
@@ -1922,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0.97540000000000004</v>
+        <v>0.97270000000000001</v>
       </c>
       <c r="G26" s="3">
-        <v>3.3700000000000001E-2</v>
+        <v>-2.3699999999999999E-2</v>
       </c>
       <c r="H26" s="4">
         <v>0.42</v>
@@ -1980,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0.97450000000000003</v>
+        <v>0.96940000000000004</v>
       </c>
       <c r="G27" s="3">
-        <v>3.2199999999999999E-2</v>
+        <v>-6.7400000000000002E-2</v>
       </c>
       <c r="H27" s="4">
         <v>0.42</v>
@@ -2038,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>0.92949999999999999</v>
+        <v>0.94769999999999999</v>
       </c>
       <c r="G28" s="3">
-        <v>-9.4999999999999998E-3</v>
+        <v>0.1734</v>
       </c>
       <c r="H28" s="4">
         <v>0.06</v>
@@ -2096,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0.91710000000000003</v>
+        <v>0.94520000000000004</v>
       </c>
       <c r="G29" s="3">
-        <v>6.3600000000000004E-2</v>
+        <v>0.22950000000000001</v>
       </c>
       <c r="H29" s="4">
         <v>0.06</v>
@@ -2154,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>0.90949999999999998</v>
+        <v>0.93369999999999997</v>
       </c>
       <c r="G30" s="3">
-        <v>0.1492</v>
+        <v>0.31240000000000001</v>
       </c>
       <c r="H30" s="4">
         <v>0.06</v>
@@ -2212,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>0.90100000000000002</v>
+        <v>0.92549999999999999</v>
       </c>
       <c r="G31" s="3">
-        <v>0.23130000000000001</v>
+        <v>0.39040000000000002</v>
       </c>
       <c r="H31" s="4">
         <v>0.12</v>
@@ -2270,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0.89739999999999998</v>
+        <v>0.92190000000000005</v>
       </c>
       <c r="G32" s="3">
-        <v>0.34239999999999998</v>
+        <v>0.49559999999999998</v>
       </c>
       <c r="H32" s="4">
         <v>0.2</v>
@@ -2328,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0.8931</v>
+        <v>0.91779999999999995</v>
       </c>
       <c r="G33" s="3">
-        <v>0.25330000000000003</v>
+        <v>0.41120000000000001</v>
       </c>
       <c r="H33" s="4">
         <v>0.15</v>
@@ -2386,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>0.8921</v>
+        <v>0.91690000000000005</v>
       </c>
       <c r="G34" s="3">
-        <v>0.22900000000000001</v>
+        <v>0.38819999999999999</v>
       </c>
       <c r="H34" s="4">
         <v>0.21</v>
@@ -2444,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0.89180000000000004</v>
+        <v>0.91659999999999997</v>
       </c>
       <c r="G35" s="3">
-        <v>0.2208</v>
+        <v>0.3805</v>
       </c>
       <c r="H35" s="4">
         <v>0.06</v>
